--- a/exemplo_dados_entrada.xlsx
+++ b/exemplo_dados_entrada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Maccari\Meu Drive\Programming\table2spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62178684-B665-431C-A0E7-AF704A85CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75CEC6-6DE1-4D81-AB91-FAA5AFA0D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,6 +361,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,6 +375,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -773,7 +775,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="F102" sqref="F102"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+      <selection pane="topRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23631,7 +23633,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/exemplo_dados_entrada.xlsx
+++ b/exemplo_dados_entrada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Maccari\Meu Drive\Programming\table2spatial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75CEC6-6DE1-4D81-AB91-FAA5AFA0D5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C39691A5-C8E8-4442-AA2C-2546BFC57C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,12 +293,6 @@
     <t>PTI-2086</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>afloramento</t>
   </si>
   <si>
@@ -333,6 +327,12 @@
   </si>
   <si>
     <t>WGS 84</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="F102" sqref="F102"/>
-      <selection pane="topRight" activeCell="E93" sqref="E93"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,31 +793,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="K1"/>
     </row>
@@ -835,13 +835,13 @@
         <v>125.2832184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3">
         <v>44705</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>1</v>
@@ -864,13 +864,13 @@
         <v>53.412632000000002</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3">
         <v>44705</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>1</v>
@@ -893,13 +893,13 @@
         <v>39.812831899999999</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>44705</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>1</v>
@@ -922,13 +922,13 @@
         <v>24.973856000000001</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>44705</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>1</v>
@@ -951,13 +951,13 @@
         <v>44.272060400000001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>44706</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>37.874935200000003</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>44706</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>7</v>
@@ -1009,13 +1009,13 @@
         <v>41.484497099999999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
         <v>44706</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>1</v>
@@ -1038,13 +1038,13 @@
         <v>56.825626399999997</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>44706</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>1</v>
@@ -1067,13 +1067,13 @@
         <v>71.886283899999995</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>44706</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>50.537166599999999</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3">
         <v>44706</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
@@ -1123,13 +1123,13 @@
         <v>47.3423424</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>44706</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>1</v>
@@ -1152,13 +1152,13 @@
         <v>39.140392300000002</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3">
         <v>44706</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="6">
@@ -1179,13 +1179,13 @@
         <v>35.274852799999998</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>44706</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>1</v>
@@ -1208,13 +1208,13 @@
         <v>59.004718799999999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>44706</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="6">
@@ -1235,13 +1235,13 @@
         <v>32.632495900000002</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3">
         <v>44706</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>1</v>
@@ -1264,13 +1264,13 @@
         <v>63.219078099999997</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>44706</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>1</v>
@@ -1293,13 +1293,13 @@
         <v>38.137916599999997</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>44706</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>1</v>
@@ -1322,13 +1322,13 @@
         <v>31.333524700000002</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3">
         <v>44706</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>7</v>
@@ -1351,13 +1351,13 @@
         <v>29.815015800000001</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>44706</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>7</v>
@@ -1380,13 +1380,13 @@
         <v>41.443531</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>44707</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>1</v>
@@ -1409,13 +1409,13 @@
         <v>46.0139961</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>44707</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="6">
@@ -1436,13 +1436,13 @@
         <v>62.477966299999999</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
         <v>44707</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>7</v>
@@ -1465,13 +1465,13 @@
         <v>72.882606499999994</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>44707</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>1</v>
@@ -1494,13 +1494,13 @@
         <v>96.738723800000002</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25" s="3">
         <v>44707</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6">
@@ -1521,13 +1521,13 @@
         <v>116.87725829999999</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>44707</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6">
@@ -1548,13 +1548,13 @@
         <v>122.82434840000001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
         <v>44707</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>1</v>
@@ -1577,13 +1577,13 @@
         <v>142.79672239999999</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="3">
         <v>44707</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>1</v>
@@ -1606,13 +1606,13 @@
         <v>35.719688400000003</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3">
         <v>44707</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>7</v>
@@ -1635,13 +1635,13 @@
         <v>36.867008200000001</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3">
         <v>44707</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="6">
@@ -1662,13 +1662,13 @@
         <v>36.525219</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" s="3">
         <v>44707</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6">
@@ -1689,13 +1689,13 @@
         <v>53.904781300000003</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>44707</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>1</v>
@@ -1718,13 +1718,13 @@
         <v>121.6553574</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
         <v>44707</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="6">
@@ -1745,13 +1745,13 @@
         <v>154.18789670000001</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" s="3">
         <v>44707</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>175.5617981</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>44707</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="6">
@@ -1801,13 +1801,13 @@
         <v>48.5979958</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="3">
         <v>44708</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>7</v>
@@ -1830,13 +1830,13 @@
         <v>57.0160713</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3">
         <v>44708</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>1</v>
@@ -1859,13 +1859,13 @@
         <v>63.589382200000003</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3">
         <v>44708</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1</v>
@@ -1888,13 +1888,13 @@
         <v>47.290275600000001</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3">
         <v>44708</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>7</v>
@@ -1917,13 +1917,13 @@
         <v>65.089034999999996</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3">
         <v>44708</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>1</v>
@@ -1946,13 +1946,13 @@
         <v>61.205196399999998</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>44708</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="6">
@@ -1973,13 +1973,13 @@
         <v>117.43404390000001</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>44708</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="6">
@@ -2000,13 +2000,13 @@
         <v>50.685546899999999</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>44708</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="6">
@@ -2027,13 +2027,13 @@
         <v>45.2702217</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>44708</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>1</v>
@@ -2056,13 +2056,13 @@
         <v>49.152370500000004</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>44708</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>1</v>
@@ -2085,13 +2085,13 @@
         <v>47.091068300000003</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>44708</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>1</v>
@@ -2114,13 +2114,13 @@
         <v>51.696502700000003</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>44708</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="6">
@@ -2141,13 +2141,13 @@
         <v>93.626518200000007</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>44708</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="6">
@@ -2168,13 +2168,13 @@
         <v>68.682464600000003</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>44708</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>1</v>
@@ -2197,13 +2197,13 @@
         <v>54.277442899999997</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F50" s="3">
         <v>44708</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>1</v>
@@ -2226,13 +2226,13 @@
         <v>53.246417999999998</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3">
         <v>44708</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="6">
@@ -2253,13 +2253,13 @@
         <v>51.842876400000002</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>44708</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="6">
@@ -2280,13 +2280,13 @@
         <v>51.348903700000001</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F53" s="3">
         <v>44708</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="6">
@@ -2307,13 +2307,13 @@
         <v>53.111461599999998</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>44708</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="6">
@@ -2334,13 +2334,13 @@
         <v>42.838531500000002</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3">
         <v>44708</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="6">
@@ -2361,13 +2361,13 @@
         <v>46.4285049</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F56" s="3">
         <v>44708</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="6">
@@ -2388,13 +2388,13 @@
         <v>56.753440900000001</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>44708</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="6">
@@ -2415,13 +2415,13 @@
         <v>50.673969300000003</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>44708</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="6">
@@ -2442,13 +2442,13 @@
         <v>94.947753899999995</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>44709</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>60</v>
@@ -2471,13 +2471,13 @@
         <v>124.7771683</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>44709</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>1</v>
@@ -2500,13 +2500,13 @@
         <v>159.24694819999999</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>44709</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>1</v>
@@ -2529,13 +2529,13 @@
         <v>206.8146362</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>44709</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>1</v>
@@ -2558,13 +2558,13 @@
         <v>243.85932919999999</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F63" s="3">
         <v>44709</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>1</v>
@@ -2587,13 +2587,13 @@
         <v>265.06954960000002</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F64" s="3">
         <v>44709</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>1</v>
@@ -2616,13 +2616,13 @@
         <v>273.90469359999997</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F65" s="3">
         <v>44709</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>60</v>
@@ -2645,13 +2645,13 @@
         <v>317.47253419999998</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>44709</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="6">
@@ -2672,13 +2672,13 @@
         <v>327.77102660000003</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3">
         <v>44709</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="6">
@@ -2699,13 +2699,13 @@
         <v>89.5470428</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="3">
         <v>44709</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>1</v>
@@ -2728,13 +2728,13 @@
         <v>109.9831772</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="3">
         <v>44709</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>60</v>
@@ -2757,13 +2757,13 @@
         <v>146.46017459999999</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>44709</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>1</v>
@@ -2786,13 +2786,13 @@
         <v>154.31016539999999</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F71" s="3">
         <v>44709</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>1</v>
@@ -2815,13 +2815,13 @@
         <v>161.12983700000001</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F72" s="3">
         <v>44709</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>1</v>
@@ -2844,13 +2844,13 @@
         <v>69.889388999999994</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="3">
         <v>44711</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>1</v>
@@ -2873,13 +2873,13 @@
         <v>68.0082855</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="3">
         <v>44711</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="6">
@@ -2900,13 +2900,13 @@
         <v>96.780921899999996</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="3">
         <v>44711</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>1</v>
@@ -2929,13 +2929,13 @@
         <v>98.836868300000006</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>44711</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>1</v>
@@ -2958,13 +2958,13 @@
         <v>158.09355160000001</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="3">
         <v>44711</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>1</v>
@@ -2987,13 +2987,13 @@
         <v>67.71772</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F78" s="3">
         <v>44711</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>1</v>
@@ -3016,13 +3016,13 @@
         <v>46.854221299999999</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F79" s="3">
         <v>44711</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="6">
@@ -3043,13 +3043,13 @@
         <v>46.276901199999998</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F80" s="3">
         <v>44711</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="6">
@@ -3070,13 +3070,13 @@
         <v>52.761631000000001</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
         <v>44711</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="6">
@@ -3097,13 +3097,13 @@
         <v>56.204612699999998</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F82" s="3">
         <v>44711</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="6">
@@ -3124,13 +3124,13 @@
         <v>68.914360000000002</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>44711</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="6">
@@ -3151,13 +3151,13 @@
         <v>76.859367399999996</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F84" s="3">
         <v>44711</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="6">
@@ -3178,13 +3178,13 @@
         <v>52.469844799999997</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F85" s="3">
         <v>44711</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>7</v>
@@ -3207,13 +3207,13 @@
         <v>58.780425999999999</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F86" s="3">
         <v>44711</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="6">
@@ -3234,13 +3234,13 @@
         <v>66.0024643</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F87" s="3">
         <v>44711</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>60</v>
@@ -23646,13 +23646,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
